--- a/Excel/C_I18NConfig.xlsx
+++ b/Excel/C_I18NConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C970E1-C254-4072-8A10-F374A7015FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA369E8F-25BA-44A5-811B-7D8D0FE42DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>Id</t>
   </si>
@@ -293,6 +293,42 @@
   </si>
   <si>
     <t>Update_Info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否进入白名单模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter white list mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_White</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current version is too low, please download the client again</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本太低，请重新下载客户端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_ReDownload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current version is lower. It is recommended to download the latest client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本较低。建议下载最新的客户端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_SuDownload</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -687,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F31"/>
+  <dimension ref="C3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1108,6 +1144,48 @@
         <v>84</v>
       </c>
     </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="6">
+        <v>26</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <v>27</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="6">
+        <v>28</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/C_I18NConfig.xlsx
+++ b/Excel/C_I18NConfig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA369E8F-25BA-44A5-811B-7D8D0FE42DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F43E1A-3567-4F98-A249-6B1BCCD87FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -726,7 +726,7 @@
   <dimension ref="C3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
